--- a/excel_files/_2_bus_schedule.xlsx
+++ b/excel_files/_2_bus_schedule.xlsx
@@ -483,17 +483,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10:00 - 11:00</t>
+          <t>13:00 - 14:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -515,17 +515,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13:00 - 14:00</t>
+          <t>11:00 - 12:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -547,17 +547,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>14:00 - 15:00</t>
+          <t>13:00 - 14:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -610,17 +610,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>12:00, 16:00, 18:00</t>
+          <t>14:00, 17:00, 20:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
     </row>
@@ -632,17 +632,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09:00, 13:00, 17:00</t>
+          <t>12:00, 15:00, 18:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
     </row>
@@ -654,17 +654,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10:00, 12:00, 16:00, 18:00</t>
+          <t>11:00, 15:00, 18:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>11:00, 13:00, 17:00</t>
+          <t>10:00, 13:00, 17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>12:00, 16:00</t>
+          <t>11:00, 15:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
     </row>
@@ -720,17 +720,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>12:00, 16:00, 20:00</t>
+          <t>12:00, 15:00, 18:00, 20:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>14:00, 16:00, 20:00</t>
+          <t>11:00, 14:00, 18:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>20:00</t>
         </is>
       </c>
     </row>
